--- a/Output.xlsx
+++ b/Output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Category</t>
   </si>
@@ -25,13 +25,22 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Clothing</t>
-  </si>
-  <si>
-    <t>498</t>
-  </si>
-  <si>
-    <t>1/13/21</t>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>1/17/21</t>
   </si>
 </sst>
 </file>
@@ -389,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,10 +423,38 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
